--- a/AMapDataBinding/data.xlsx
+++ b/AMapDataBinding/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\CustomGeo\AMapDataBinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E21B0-AEF9-44F8-B02A-67BB7CF67A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154A208-2ACC-4288-8B0A-0A7FFA7E5306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="48">
   <si>
     <t>province</t>
   </si>
@@ -81,16 +81,121 @@
   </si>
   <si>
     <t>上海市</t>
+  </si>
+  <si>
+    <t>重庆市</t>
+  </si>
+  <si>
+    <t>澳门特别行政区</t>
+  </si>
+  <si>
+    <t>广东省</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>海南省</t>
+  </si>
+  <si>
+    <t>山西省</t>
+  </si>
+  <si>
+    <t>台湾省</t>
+  </si>
+  <si>
+    <t>贵州省</t>
+  </si>
+  <si>
+    <t>广西壮族自治区</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+  </si>
+  <si>
+    <t>河南省</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>安徽省</t>
+  </si>
+  <si>
+    <t>湖南省</t>
+  </si>
+  <si>
+    <t>湖北省</t>
+  </si>
+  <si>
+    <t>黑龙江省</t>
+  </si>
+  <si>
+    <t>内蒙古自治区</t>
+  </si>
+  <si>
+    <t>宁夏回族自治区</t>
+  </si>
+  <si>
+    <t>江西省</t>
+  </si>
+  <si>
+    <t>江苏省</t>
+  </si>
+  <si>
+    <t>吉林省</t>
+  </si>
+  <si>
+    <t>辽宁省</t>
+  </si>
+  <si>
+    <t>山东省</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区</t>
+  </si>
+  <si>
+    <t>天津市</t>
+  </si>
+  <si>
+    <t>青海省</t>
+  </si>
+  <si>
+    <t>陕西省</t>
+  </si>
+  <si>
+    <t>西藏自治区</t>
+  </si>
+  <si>
+    <t>四川省</t>
+  </si>
+  <si>
+    <t>香港特别行政区</t>
+  </si>
+  <si>
+    <t>云南省</t>
+  </si>
+  <si>
+    <t>浙江省</t>
+  </si>
+  <si>
+    <t>HuaweiMateX5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,11 +503,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -511,14 +614,1239 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="K3">
         <f>7999*J3</f>
+        <v>16797900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>110000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>39.904210999999997</v>
+      </c>
+      <c r="H4">
+        <v>116.407394</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>2200</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K37" si="0">7999*J4</f>
+        <v>17597800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>120000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>39.084158000000002</v>
+      </c>
+      <c r="H5">
+        <v>117.20098299999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>2300</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>18397700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>130000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>38.037433</v>
+      </c>
+      <c r="H6">
+        <v>114.530235</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>2400</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>19197600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>140000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>37.873499000000002</v>
+      </c>
+      <c r="H7">
+        <v>112.56267800000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>2500</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>19997500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>150000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>40.817390000000003</v>
+      </c>
+      <c r="H8">
+        <v>111.76629</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>2600</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>20797400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>210000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>41.836174999999997</v>
+      </c>
+      <c r="H9">
+        <v>123.431382</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>2700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>21597300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>220000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>43.897016000000001</v>
+      </c>
+      <c r="H10">
+        <v>125.32568000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>2800</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>22397200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>230000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>45.742365999999997</v>
+      </c>
+      <c r="H11">
+        <v>126.661665</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>2900</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>23197100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>310000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>31.230371999999999</v>
+      </c>
+      <c r="H12">
+        <v>121.473662</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>3000</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>23997000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>320000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>32.060875000000003</v>
+      </c>
+      <c r="H13">
+        <v>118.762765</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>3100</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>24796900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>330000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>30.266597000000001</v>
+      </c>
+      <c r="H14">
+        <v>120.152585</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>3200</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>25596800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>340000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>31.733806000000001</v>
+      </c>
+      <c r="H15">
+        <v>117.329949</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>3300</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>26396700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>350000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>26.100778999999999</v>
+      </c>
+      <c r="H16">
+        <v>119.295143</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>3400</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>27196600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>360000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>28.636659999999999</v>
+      </c>
+      <c r="H17">
+        <v>115.81635</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>3500</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>27996500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>370000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>36.671156000000003</v>
+      </c>
+      <c r="H18">
+        <v>117.019915</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>3600</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>28796400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>410000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>34.765869000000002</v>
+      </c>
+      <c r="H19">
+        <v>113.753394</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>3700</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>29596300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>420000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>30.546557</v>
+      </c>
+      <c r="H20">
+        <v>114.341745</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>3800</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>30396200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>430000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>28.112742999999998</v>
+      </c>
+      <c r="H21">
+        <v>112.9836</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21">
+        <v>3900</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>31196100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>440000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>23.132324000000001</v>
+      </c>
+      <c r="H22">
+        <v>113.26640999999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22">
+        <v>4000</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>31996000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>450000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>22.815477999999999</v>
+      </c>
+      <c r="H23">
+        <v>108.327546</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23">
+        <v>4100</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>32795900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>460000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>20.017377</v>
+      </c>
+      <c r="H24">
+        <v>110.349228</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <v>4200</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>33595800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>500000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>29.562849</v>
+      </c>
+      <c r="H25">
+        <v>106.551643</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25">
+        <v>4300</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>34395700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>510000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>30.651239</v>
+      </c>
+      <c r="H26">
+        <v>104.07580900000001</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26">
+        <v>4400</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>35195600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>520000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>26.600055000000001</v>
+      </c>
+      <c r="H27">
+        <v>106.70546</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27">
+        <v>4500</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
         <v>35995500</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>530000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>25.045805999999999</v>
+      </c>
+      <c r="H28">
+        <v>102.710002</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28">
+        <v>4600</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>36795400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>540000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>29.647535000000001</v>
+      </c>
+      <c r="H29">
+        <v>91.117525000000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29">
+        <v>4700</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>37595300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>610000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>34.265501999999998</v>
+      </c>
+      <c r="H30">
+        <v>108.954347</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30">
+        <v>4800</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>38395200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>620000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>36.059559999999998</v>
+      </c>
+      <c r="H31">
+        <v>103.826447</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31">
+        <v>4900</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>39195100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>630000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>36.620939</v>
+      </c>
+      <c r="H32">
+        <v>101.78026800000001</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32">
+        <v>5000</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>39995000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>640000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>38.472641000000003</v>
+      </c>
+      <c r="H33">
+        <v>106.25912599999999</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33">
+        <v>5100</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>40794900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>650000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>43.793025999999998</v>
+      </c>
+      <c r="H34">
+        <v>87.627703999999994</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34">
+        <v>5200</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>41594800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>710000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>25.044332000000001</v>
+      </c>
+      <c r="H35">
+        <v>121.509062</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35">
+        <v>5300</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>42394700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>810000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>22.277467999999999</v>
+      </c>
+      <c r="H36">
+        <v>114.17120300000001</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36">
+        <v>5400</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>43194600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>820000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>22.186834999999999</v>
+      </c>
+      <c r="H37">
+        <v>113.54302800000001</v>
+      </c>
+      <c r="I37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37">
+        <v>5500</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>43994500</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>